--- a/library fine system/Result.xlsx
+++ b/library fine system/Result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASHMITA\OneDrive\Desktop\ARPA\ex 7 library fine system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\220701095-ARPA_LAB\library fine system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F933FD31-549A-41F2-86A9-68ECD9A9EDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E81C210-B95D-4E2F-8CFB-79301DB5EF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -648,11 +648,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -675,7 +675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -698,7 +698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -721,7 +721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -744,7 +744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -767,7 +767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -790,7 +790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -813,7 +813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -836,7 +836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>14</v>
       </c>
@@ -859,7 +859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>15</v>
       </c>
@@ -882,7 +882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>16</v>
       </c>
@@ -905,7 +905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>17</v>
       </c>
@@ -928,7 +928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>18</v>
       </c>
@@ -951,7 +951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>19</v>
       </c>
@@ -974,7 +974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>20</v>
       </c>
@@ -997,7 +997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>21</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>22</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>23</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>24</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>25</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>26</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>27</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>28</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>29</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>30</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>31</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>32</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>33</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>34</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>35</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>47</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>48</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>49</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>50</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>51</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>52</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>53</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>54</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>55</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>56</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>57</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>58</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>59</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>60</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>61</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>62</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>63</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>64</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>65</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>66</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>67</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>68</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>69</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>70</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>78</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>79</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>80</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>81</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>86</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>87</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>88</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>89</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>90</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>91</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>92</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>95</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>96</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>97</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>98</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>99</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>100</v>
       </c>
